--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebDev\Website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebDev\Website\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13800EE7-6067-4EC5-8AB1-130691B90E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A679337-B94F-4D66-9B50-97E6DA2D3206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4596" yWindow="1428" windowWidth="17280" windowHeight="8880" xr2:uid="{F0A6CF57-64D9-40CA-8ABA-DC59D9C4FF3A}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{F0A6CF57-64D9-40CA-8ABA-DC59D9C4FF3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -199,12 +199,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0A3577-D6E0-4053-9732-45FA18DA4FFE}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,7 +664,7 @@
       <c r="E17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G17" s="3" t="s">
